--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\PycharmProjects\SeleniumHybridFramework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8522884C-8712-4E4C-B93E-103FEECC126E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7EBCE7-19EB-46D4-A5B5-8F0906590E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5655" yWindow="1050" windowWidth="21195" windowHeight="13815" xr2:uid="{64B70455-E6C8-43A6-BCD4-A6BA99F95CAA}"/>
+    <workbookView xWindow="31275" yWindow="645" windowWidth="21195" windowHeight="13815" xr2:uid="{64B70455-E6C8-43A6-BCD4-A6BA99F95CAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>email</t>
   </si>
@@ -50,19 +50,22 @@
     <t>georgebiden@gmail.com</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>david130!</t>
-  </si>
-  <si>
     <t>botmail@gmail.com</t>
   </si>
   <si>
     <t>sdjfh</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>g@gmail.com</t>
+  </si>
+  <si>
+    <t>bot@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -448,7 +451,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,10 +474,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -485,7 +488,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -493,21 +496,21 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
